--- a/biology/Médecine/Gandouch/Gandouch.xlsx
+++ b/biology/Médecine/Gandouch/Gandouch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine ayurvédique, le gandouch est un bain de bouche à l'huile végétale, pratiqué traditionnellement chaque matin, au lever, pendant 5 à 20 minutes, bouche fermée, après avoir raclé la langue pour éliminer les sécrétions[Quoi ?] du système digestif et les impuretés[Quoi ?] déposées[Par qui ?] pendant la nuit.
-Quelques articles de presse font état d'améliorations sur l'acné, l’eczéma, la mauvaise haleine, la sinusite[1], le blanchiment des dents (notamment avec l'huile de coco[2]), les aphtes et caries.
-Les études scientifiques sur cette technique sont rares[3]. Une étude de 2014 concluait que « Les effets du gandouch sur la santé en général et sur quelque indication spécifique que ce soit relèvent de la pseudoscience[4]. » Une revue systématique de 2016 examinant les conclusions de 26 études portant sur un total de 160 individus indique que 2 de ces 26 études concluent qu'il n'y a pas de différence statistiquement  significative entre les effets du gandouch et ceux de bains de bouche à la chlorhexidine sur la plaque dentaire, et que 3 de ces 26 études concluent de même concernant les effets sur la gingivite, mais les études sont peu nombreuses et de faible qualité[5].
+Quelques articles de presse font état d'améliorations sur l'acné, l’eczéma, la mauvaise haleine, la sinusite, le blanchiment des dents (notamment avec l'huile de coco), les aphtes et caries.
+Les études scientifiques sur cette technique sont rares. Une étude de 2014 concluait que « Les effets du gandouch sur la santé en général et sur quelque indication spécifique que ce soit relèvent de la pseudoscience. » Une revue systématique de 2016 examinant les conclusions de 26 études portant sur un total de 160 individus indique que 2 de ces 26 études concluent qu'il n'y a pas de différence statistiquement  significative entre les effets du gandouch et ceux de bains de bouche à la chlorhexidine sur la plaque dentaire, et que 3 de ces 26 études concluent de même concernant les effets sur la gingivite, mais les études sont peu nombreuses et de faible qualité.
 </t>
         </is>
       </c>
